--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-10.77343650301944</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69287921376202</v>
+        <v>-10.69335053666433</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.039541109533778</v>
+        <v>-4.067820483671906</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.765803699477765</v>
+        <v>-6.727836021236759</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.17259280402977</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05039072746104</v>
+        <v>-11.05029908134115</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.086830507398093</v>
+        <v>-4.120831217878056</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.776264449448304</v>
+        <v>-6.743651523069564</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.48417672842946</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88476318756424</v>
+        <v>-11.88595458712284</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.835235723688643</v>
+        <v>-3.864915974230836</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.609455418941872</v>
+        <v>-6.576698477231873</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.775155727249286</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73483331877467</v>
+        <v>-12.73204465826938</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.930953549764503</v>
+        <v>-3.968921228005508</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.9499338466438</v>
+        <v>-6.912502952819305</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.051305205032607</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44647853203953</v>
+        <v>-13.43964434995615</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.684373118043434</v>
+        <v>-3.721371965874151</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.514771884790509</v>
+        <v>-6.482761204342489</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.321287017069404</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13690112239796</v>
+        <v>-14.1296348943208</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.742267281209546</v>
+        <v>-3.783508035160983</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.68726297473025</v>
+        <v>-6.65571052488169</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.58279687181028</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.75005294138452</v>
+        <v>-14.73862336100369</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.562169563318763</v>
+        <v>-3.598932749698329</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.381374411136162</v>
+        <v>-6.359654280721738</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.837909967649823</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66258644945282</v>
+        <v>-15.65029277708444</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.407287620701143</v>
+        <v>-3.445674252633084</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.17557650276707</v>
+        <v>-6.166202413932394</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.071009478186636</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31417726958269</v>
+        <v>-16.30176576648873</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.398672885431287</v>
+        <v>-3.439560147205998</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.739655187348959</v>
+        <v>-5.727688822551621</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.284666523168489</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.84417987322144</v>
+        <v>-16.82310126564626</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.250062155874855</v>
+        <v>-3.287610880424925</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.506284889195191</v>
+        <v>-5.492943832599472</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.480561526701462</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47025379511278</v>
+        <v>-17.45206858646563</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.36668838958895</v>
+        <v>-3.39778260883805</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.909367525732375</v>
+        <v>-4.895332577086045</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.658014378011768</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36627790929767</v>
+        <v>-18.35030529983077</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.145546302289356</v>
+        <v>-3.177426059708958</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.264283580114848</v>
+        <v>-4.251845892415209</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.837761669440921</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10002292975937</v>
+        <v>-19.09058337941048</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.029024806997993</v>
+        <v>-3.061179502777273</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.698434251295447</v>
+        <v>-3.676151151858829</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.032586224588812</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8576875875129</v>
+        <v>-19.84113891672095</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.956388710832097</v>
+        <v>-2.990284682889326</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.101569257043998</v>
+        <v>-3.079901495840941</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2547323406826829</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.7118294249071</v>
+        <v>-20.68845966433463</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.952382466162529</v>
+        <v>-2.991292790208139</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.48939936077057</v>
+        <v>-2.45716611117424</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4762693590214042</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.42441728397657</v>
+        <v>-21.39918841640057</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.873134757061561</v>
+        <v>-2.912031988804329</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.069228085671055</v>
+        <v>-2.037413789765661</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.149927803417992</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.33031299450412</v>
+        <v>-22.30228237411999</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.779236761080702</v>
+        <v>-2.820398961215089</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.846357814396353</v>
+        <v>-1.820840916157829</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.750799561880805</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.17258011322089</v>
+        <v>-23.14360684703215</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.789920080199551</v>
+        <v>-2.827521173960988</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.369850360168891</v>
+        <v>-1.334710619341698</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.261986326484475</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97389450864873</v>
+        <v>-23.94722548776014</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.566408286085603</v>
+        <v>-2.60241211890035</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.137553630848145</v>
+        <v>-1.108344703208254</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.671725293845543</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.42271174236594</v>
+        <v>-24.39253398431577</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.405307499618164</v>
+        <v>-2.439740256091903</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7469578678680895</v>
+        <v>-0.7175132787770475</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.962150441774356</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.08550957372832</v>
+        <v>-25.05550201561509</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.192282640080439</v>
+        <v>-2.221701044565797</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6067000275246781</v>
+        <v>-0.5905703104236716</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.123061812317394</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.65560080866845</v>
+        <v>-25.62665372708539</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.186744595978388</v>
+        <v>-2.215482200715977</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2271672604458811</v>
+        <v>-0.2026715618290116</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.147366534362948</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.09411440004922</v>
+        <v>-26.06546844143152</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.129570509468571</v>
+        <v>-2.153634162091663</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2715632593821742</v>
+        <v>-0.2510738054348729</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.029619216209786</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.36991685171302</v>
+        <v>-26.34095667782712</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.780673731039413</v>
+        <v>-1.803519799498225</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2537184506089016</v>
+        <v>-0.2359521956526793</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.774752646085225</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.28620466734302</v>
+        <v>-26.25530683263655</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.678043169063122</v>
+        <v>-1.69630693152733</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4132743453410171</v>
+        <v>-0.3956521057160539</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.387996862737887</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.20241392915598</v>
+        <v>-26.16172305192389</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.751176772737004</v>
+        <v>-1.768262227945457</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3755292362483209</v>
+        <v>-0.3652910554260911</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.883515610152097</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37267932761262</v>
+        <v>-26.33867861713266</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.468422308264246</v>
+        <v>-1.485769609529533</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7111504195959687</v>
+        <v>-0.7023000228749618</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.279381302069838</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.28480379093896</v>
+        <v>-26.24303934487385</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.376776188372164</v>
+        <v>-1.389803029699681</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7852266690744547</v>
+        <v>-0.7790863790416852</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5918456785186644</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.09948224421433</v>
+        <v>-26.06159311979037</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.456429758861225</v>
+        <v>-1.46936495406885</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9278149393236934</v>
+        <v>-0.9235206639916073</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.155138879413807</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.76310170730186</v>
+        <v>-25.72679675152175</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.368724422124502</v>
+        <v>-1.380743156133207</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.41194211380504</v>
+        <v>-1.410174652921407</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.9468653951247776</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.77764725575901</v>
+        <v>-25.73691710161841</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.199886084677603</v>
+        <v>-1.209666034900372</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.703088744399344</v>
+        <v>-1.69630693152733</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.768609235827795</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.42796493915935</v>
+        <v>-25.38921172274785</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.169459572873431</v>
+        <v>-1.177144754641525</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.203345635981697</v>
+        <v>-2.194482146957849</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.600278734192717</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.88222538750485</v>
+        <v>-24.85114426055859</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.189228950164438</v>
+        <v>-1.194688440449438</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.309301642879786</v>
+        <v>-2.303344645086801</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.438012000699331</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.46626983392036</v>
+        <v>-24.43086824703634</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.35641765745328</v>
+        <v>-1.361157071081984</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.52216939478341</v>
+        <v>-2.521724256486792</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.26982749933474</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.81825321246629</v>
+        <v>-23.78590213214439</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.35581541152256</v>
+        <v>-1.360855948116625</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.716891214948402</v>
+        <v>-2.723201704918114</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.08285515536009</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.05948880127406</v>
+        <v>-23.0297561815205</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.335391419089468</v>
+        <v>-1.338206264200439</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845640921093937</v>
+        <v>-2.844580444563757</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.874857172411557</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.67843732706562</v>
+        <v>-22.65280259810152</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.411929021502198</v>
+        <v>-1.416105466108709</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.155575006266118</v>
+        <v>-3.150482100460686</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.633220987472395</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.03633842649601</v>
+        <v>-22.00055716282957</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.325179422872921</v>
+        <v>-1.333244281423424</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.383852398614454</v>
+        <v>-3.377646647067475</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.349959225316696</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.54849303800761</v>
+        <v>-21.51293434348948</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.493716637354461</v>
+        <v>-1.502684864801043</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.615036282193652</v>
+        <v>-3.608712699921099</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.023564192463876</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.10072318851774</v>
+        <v>-21.08430544075421</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.408433376643457</v>
+        <v>-1.422167202324428</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.618675942383652</v>
+        <v>-3.613897251846422</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.640639166372512</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.26903465049709</v>
+        <v>-20.2380058927622</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.135026816399692</v>
+        <v>-1.150515010661454</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.727721732752388</v>
+        <v>-3.719748520321777</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.20104981693312</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45284739904104</v>
+        <v>-19.4335362523495</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.142816736590519</v>
+        <v>-1.157584854195986</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.867612988616232</v>
+        <v>-3.861053744892527</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.706160745952261</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02722972595937</v>
+        <v>-19.00639987213819</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.164117913314007</v>
+        <v>-1.181085537796884</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.092551843739927</v>
+        <v>-4.084054939195647</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.14579151680333</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54221227488479</v>
+        <v>-18.52754889570205</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.153015640504224</v>
+        <v>-1.16922391142228</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.20635014004021</v>
+        <v>-4.200759726726793</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.52790856381441</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09106461126175</v>
+        <v>-18.08364127555049</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.116828515449693</v>
+        <v>-1.132578555768289</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.346123565178478</v>
+        <v>-4.347328057039917</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.85551346427357</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32680143287599</v>
+        <v>-17.31402334530247</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.210464665373717</v>
+        <v>-1.229055735408968</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.650323221705983</v>
+        <v>-4.646172961705155</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.1243698187341</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48034477724988</v>
+        <v>-16.46467329074833</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.135629062330411</v>
+        <v>-1.153015640504224</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.603387316018395</v>
+        <v>-4.604945300056561</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.34677982258833</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85372097863918</v>
+        <v>-15.84938742639857</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.085197511784082</v>
+        <v>-1.109549195069693</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.831167200858745</v>
+        <v>-4.828313078839249</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.52286013147181</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.9670185840776</v>
+        <v>-14.95464635789217</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.041861989377969</v>
+        <v>-1.062443089445162</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954470509022121</v>
+        <v>-4.954103924542553</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.65160439703249</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17442366234235</v>
+        <v>-14.16550780410713</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.042254758463221</v>
+        <v>-1.062168151085486</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.137042672149991</v>
+        <v>-5.134489673095855</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.74587526688093</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.45400660617353</v>
+        <v>-13.43317675235234</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9891000089258131</v>
+        <v>-1.010492831769193</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.035747525063557</v>
+        <v>-5.030327311687082</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.79825322658055</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.75667127991467</v>
+        <v>-12.73838133284478</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9858923947295902</v>
+        <v>-1.010283354923726</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.116317556751539</v>
+        <v>-5.112036373722295</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.81186730805133</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39309802999994</v>
+        <v>-12.37730871277282</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.182905367891884</v>
+        <v>-1.2066940821553</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.2860854477002</v>
+        <v>-5.280547403598151</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.79782759430939</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71798034166349</v>
+        <v>-11.7077552531441</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.272391257815082</v>
+        <v>-1.297397556242779</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.766350392843238</v>
+        <v>-5.762697640350397</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.74814466385804</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29469309848765</v>
+        <v>-11.28374793331196</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.287185560026232</v>
+        <v>-1.313920042429037</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.899590758863484</v>
+        <v>-5.896409329272945</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.67347831643862</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52144860035246</v>
+        <v>-10.51199595770074</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.276083287216448</v>
+        <v>-1.303066523373246</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.354797036367458</v>
+        <v>-6.349926699710336</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.58067451779712</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.04672169931148</v>
+        <v>-10.02898162896094</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.479275827320037</v>
+        <v>-1.508759693319604</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.197087156336026</v>
+        <v>-6.188184390403652</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.46448220907654</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.482116139262038</v>
+        <v>-9.470228328281751</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.467990262270469</v>
+        <v>-1.496426744042698</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.4209524426267</v>
+        <v>-6.410674984895945</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.33870610326403</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.19206926210644</v>
+        <v>-9.177746282797591</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.545706171938955</v>
+        <v>-1.572283546707659</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.30118405623059</v>
+        <v>-6.287751353514979</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.20241838390393</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.556058282358229</v>
+        <v>-8.53346096765341</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.630950155741434</v>
+        <v>-1.662109836504742</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.715843471833738</v>
+        <v>-6.711130242810716</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.05186499301125</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.982065541171274</v>
+        <v>-7.958316103816383</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.545457418184962</v>
+        <v>-1.572859608032695</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.580560706570182</v>
+        <v>-6.572626771048096</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.90131648801134</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.52056186600043</v>
+        <v>-7.498933381705899</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.538060267079387</v>
+        <v>-1.570948131817803</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.645027205762841</v>
+        <v>-6.634265332826943</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.74184766893354</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.099199191342318</v>
+        <v>-7.070068817519478</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.679116737896144</v>
+        <v>-1.710512080110603</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.822388632359704</v>
+        <v>-6.813472774124489</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.57592094092321</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.670229888733164</v>
+        <v>-6.642002883806403</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.562438134970681</v>
+        <v>-1.592301677752658</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.0051571800302</v>
+        <v>-7.004607303310848</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.41184694439918</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.431517931019973</v>
+        <v>-6.406354524958175</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.720069461185063</v>
+        <v>-1.747864420118047</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.034497030698509</v>
+        <v>-7.030857370508508</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.23824035175068</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.294402243358576</v>
+        <v>-6.264983838873217</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.710878664590171</v>
+        <v>-1.738398685163479</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.087232826544981</v>
+        <v>-7.080464105975809</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.06022003647038</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.018940191568659</v>
+        <v>-5.989129017998049</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.636553661357692</v>
+        <v>-1.656768176945317</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.047131102940774</v>
+        <v>-7.045271995937249</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.877557842348656</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.921939319814311</v>
+        <v>-5.889823900943557</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.919740171824227</v>
+        <v>-1.943515793784802</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083671720172032</v>
+        <v>-7.084535812159586</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.681442627936391</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.817043789446402</v>
+        <v>-5.780725741363454</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.866834176040812</v>
+        <v>-1.888187721975667</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.822336263148338</v>
+        <v>-6.821013940561324</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.483248899664634</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.55291967191742</v>
+        <v>-5.514245009322961</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.879795555854121</v>
+        <v>-1.899852963807645</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.730218820353953</v>
+        <v>-6.732352865717155</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.280913923593783</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.638137471114215</v>
+        <v>-5.594068779748965</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.960784541233038</v>
+        <v>-1.980711026158146</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.549689056469393</v>
+        <v>-6.554860516091874</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.071206153277361</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.709791644566981</v>
+        <v>-5.665513476356264</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.048084016581668</v>
+        <v>-2.067630824724365</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.382434887666342</v>
+        <v>-6.386532778455802</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.864855013251226</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.913520969087081</v>
+        <v>-5.871311384725356</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.909187775733796</v>
+        <v>-1.928564383939551</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.286520677047856</v>
+        <v>-6.297950257428683</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.651537244654509</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.0627863137856</v>
+        <v>-6.017041807656609</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.16294278941213</v>
+        <v>-2.176990830361303</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.141183023201855</v>
+        <v>-6.151617588566711</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.429226499125351</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.541087413502378</v>
+        <v>-6.494583553808567</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.149195871428318</v>
+        <v>-2.168101156731771</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.908951755395319</v>
+        <v>-5.923392565429742</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.198655082886733</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.01015843971574</v>
+        <v>-6.970200731442792</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.199928544940007</v>
+        <v>-2.217288938508136</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.962001766509992</v>
+        <v>-5.973522993010711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.94681535854237</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.494547460253921</v>
+        <v>-7.454079152170146</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.152953362343894</v>
+        <v>-2.172840570360476</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.591424134574936</v>
+        <v>-5.60442479129677</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.674462630330551</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.894006712257825</v>
+        <v>-7.857099510546999</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.181468397933173</v>
+        <v>-2.19509748519141</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.430205517381921</v>
+        <v>-5.443284727920806</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.378708893106659</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.269467773152845</v>
+        <v>-8.229339864942954</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.449205991046471</v>
+        <v>-2.464589446885499</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.035407125189672</v>
+        <v>-5.046836705570499</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.050972211460489</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.179500651378383</v>
+        <v>-9.143352803232377</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.375509418350395</v>
+        <v>-2.392555596650322</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.033508741277622</v>
+        <v>-5.04889219711665</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.69747616142704</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.918967008181912</v>
+        <v>-9.888147727292489</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.465663015718521</v>
+        <v>-2.483219793829275</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.863465911969283</v>
+        <v>-4.87861370635716</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.315962968143824</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.67593777388483</v>
+        <v>-10.64771076895807</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.523517901976108</v>
+        <v>-2.532171914154489</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.53864587846606</v>
+        <v>-4.555063626229584</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.904058975231198</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81419567524734</v>
+        <v>-11.78405719410568</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.608578593538803</v>
+        <v>-2.620963912027075</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.434326409423186</v>
+        <v>-4.451896279836783</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.473374867125347</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.62961048083572</v>
+        <v>-12.60093833761234</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.751363248330667</v>
+        <v>-2.763604551487681</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.071970743672733</v>
+        <v>-4.091884136295</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.024325681892593</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.65986997605683</v>
+        <v>-13.62836989541963</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.846779951441166</v>
+        <v>-2.858288085639044</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.749297847835553</v>
+        <v>-3.763136411939258</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.564247086990277</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.65828899076686</v>
+        <v>-14.62750898678596</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.879955846842101</v>
+        <v>-2.890050012333071</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.302614659481543</v>
+        <v>-3.320053606866722</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.10507135185603</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.02845085236486</v>
+        <v>-16.00443956895313</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.790339033890485</v>
+        <v>-2.805892689666456</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.051949429273856</v>
+        <v>-3.068799223031157</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.65054104330934</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.4483896493671</v>
+        <v>-17.42001862910908</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.02459960863749</v>
+        <v>-3.034497389585835</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.779917560828471</v>
+        <v>-2.793153879001457</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.213479906311787</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.91982047344585</v>
+        <v>-18.89241828359812</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.22400847321982</v>
+        <v>-3.235830822685899</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.651377331528405</v>
+        <v>-2.661157281751175</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.803611493349917</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55167128424427</v>
+        <v>-20.52997733843553</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.437583209476897</v>
+        <v>-3.453503449732436</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.70754331071941</v>
+        <v>-2.712596939616316</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.42490077427561</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.02647992245619</v>
+        <v>-22.00295305424961</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.441563269540782</v>
+        <v>-3.449196082097508</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.601600396124163</v>
+        <v>-2.611170869501464</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.089801367752157</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.01787155389409</v>
+        <v>-23.99389954739089</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.663739648764873</v>
+        <v>-3.683194810787678</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.570990592080207</v>
+        <v>-2.578557943122725</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.801428153835183</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.18959656467393</v>
+        <v>-26.16768004971688</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.467001613962255</v>
+        <v>-3.484335822924701</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.730441748389589</v>
+        <v>-2.740352621640775</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.560028637598303</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.36363891305675</v>
+        <v>-28.34062264466099</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.973215503337594</v>
+        <v>-3.994830895329284</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.945509007170623</v>
+        <v>-2.949606897960083</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.369016957022395</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.40296146519821</v>
+        <v>-30.37460353724303</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.954284033428458</v>
+        <v>-3.975964886934356</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.279113975880645</v>
+        <v>-3.283368974304206</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.221365477932708</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.66706576482927</v>
+        <v>-32.63509436128977</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.105343023616293</v>
+        <v>-4.122179725070754</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.363336760061469</v>
+        <v>-3.367604850787871</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.109940095369099</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.17226482129071</v>
+        <v>-35.14410327787815</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.38762616518675</v>
+        <v>-4.408809511184662</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784084096486019</v>
+        <v>-3.784804173142314</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.025699326592662</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.57408705451388</v>
+        <v>-37.54744421823096</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.239303466292835</v>
+        <v>-4.255603383330784</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.180780872590319</v>
+        <v>-4.186318916692369</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.9535622763563675</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.19783691320715</v>
+        <v>-40.17269969175103</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.360642929029952</v>
+        <v>-4.378762676162901</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.431537748917899</v>
+        <v>-4.437141254534158</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.8826599863579566</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.6394073778578</v>
+        <v>-42.61569721741144</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.515825994612931</v>
+        <v>-4.533998110957246</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.945096420187445</v>
+        <v>-4.953842078485718</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.8004106670734428</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.00356305580533</v>
+        <v>-44.97744391163609</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.603766992800805</v>
+        <v>-4.620551325043897</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.14476713082661</v>
+        <v>-5.147477237514847</v>
       </c>
     </row>
   </sheetData>
